--- a/main/spec_sheet_output.xlsx
+++ b/main/spec_sheet_output.xlsx
@@ -457,10 +457,10 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>0.65</v>
+        <v>0.77</v>
       </c>
       <c r="E2">
-        <v>1.95</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -471,10 +471,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0.28</v>
+        <v>0.44</v>
       </c>
       <c r="E3">
-        <v>0.5600000000000001</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -485,10 +485,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.24</v>
+        <v>0.63</v>
       </c>
       <c r="E4">
-        <v>0.24</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -499,10 +499,10 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0.72</v>
+        <v>0.26</v>
       </c>
       <c r="E5">
-        <v>1.44</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -516,10 +516,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.37</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0.37</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -533,10 +533,10 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>0.61</v>
+        <v>0.68</v>
       </c>
       <c r="E7">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -550,10 +550,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="E8">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -567,10 +567,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0.39</v>
       </c>
       <c r="E9">
-        <v>0.5</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1">
@@ -578,7 +578,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="2">
-        <v>6.78</v>
+        <v>7.279999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/main/spec_sheet_output.xlsx
+++ b/main/spec_sheet_output.xlsx
@@ -457,10 +457,10 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>0.77</v>
+        <v>0.36</v>
       </c>
       <c r="E2">
-        <v>2.31</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -471,10 +471,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0.44</v>
+        <v>0.75</v>
       </c>
       <c r="E3">
-        <v>0.88</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -485,10 +485,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.63</v>
+        <v>0.45</v>
       </c>
       <c r="E4">
-        <v>0.63</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -499,10 +499,10 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0.26</v>
+        <v>0.48</v>
       </c>
       <c r="E5">
-        <v>0.52</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -516,10 +516,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.7</v>
+        <v>0.22</v>
       </c>
       <c r="E6">
-        <v>0.7</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -533,10 +533,10 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>0.68</v>
+        <v>0.38</v>
       </c>
       <c r="E7">
-        <v>1.36</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -550,10 +550,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.49</v>
+        <v>0.73</v>
       </c>
       <c r="E8">
-        <v>0.49</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -567,10 +567,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
       <c r="E9">
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1">
@@ -578,7 +578,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="2">
-        <v>7.279999999999999</v>
+        <v>5.9</v>
       </c>
     </row>
   </sheetData>

--- a/main/spec_sheet_output.xlsx
+++ b/main/spec_sheet_output.xlsx
@@ -457,10 +457,10 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="E2">
-        <v>1.08</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -471,10 +471,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0.75</v>
+        <v>0.41</v>
       </c>
       <c r="E3">
-        <v>1.5</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -485,10 +485,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="E4">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -499,10 +499,10 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="E5">
-        <v>0.96</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -516,10 +516,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="E6">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -533,10 +533,10 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>0.38</v>
+        <v>0.8</v>
       </c>
       <c r="E7">
-        <v>0.76</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -550,10 +550,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.73</v>
+        <v>0.78</v>
       </c>
       <c r="E8">
-        <v>0.73</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -567,10 +567,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>0.57</v>
       </c>
       <c r="E9">
-        <v>0.2</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1">
@@ -578,7 +578,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="2">
-        <v>5.9</v>
+        <v>6.87</v>
       </c>
     </row>
   </sheetData>
